--- a/image/practitionerrole.xlsx
+++ b/image/practitionerrole.xlsx
@@ -916,46 +916,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.65234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.47265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="48.83203125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="45.03515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="44.6875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="48.53125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.42578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="45.65234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="91.03515625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="74.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="26.109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="185.46484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="84.140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="75.79296875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.87109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="186.2890625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/practitionerrole.xlsx
+++ b/image/practitionerrole.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="243">
   <si>
     <t>Path</t>
   </si>
@@ -177,7 +177,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -617,10 +617,6 @@
   </si>
   <si>
     <t>PractitionerRole.availableTime.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -916,46 +912,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.6875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="48.53125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="45.65234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="48.83203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="45.03515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="44.6875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="84.140625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="75.79296875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.87109375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="186.2890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="91.03515625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="74.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="185.46484375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3379,13 +3375,13 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3436,7 +3432,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3454,7 +3450,7 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -3468,7 +3464,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3497,7 +3493,7 @@
         <v>98</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>100</v>
@@ -3550,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>42</v>
@@ -3568,7 +3564,7 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>41</v>
@@ -3582,11 +3578,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3608,10 +3604,10 @@
         <v>97</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>100</v>
@@ -3666,7 +3662,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -3698,7 +3694,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3724,10 +3720,10 @@
         <v>71</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3754,14 +3750,14 @@
         <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>212</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>41</v>
       </c>
@@ -3778,7 +3774,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -3810,7 +3806,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3836,10 +3832,10 @@
         <v>118</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3890,7 +3886,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -3922,7 +3918,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3945,16 +3941,16 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4004,7 +4000,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4036,7 +4032,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4059,16 +4055,16 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4118,7 +4114,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4150,7 +4146,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4176,10 +4172,10 @@
         <v>187</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4230,7 +4226,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4262,7 +4258,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4285,13 +4281,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4342,7 +4338,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4360,7 +4356,7 @@
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -4374,7 +4370,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4403,7 +4399,7 @@
         <v>98</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>100</v>
@@ -4456,7 +4452,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4474,7 +4470,7 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -4488,11 +4484,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4514,10 +4510,10 @@
         <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>100</v>
@@ -4572,7 +4568,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4604,7 +4600,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4627,13 +4623,13 @@
         <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4684,7 +4680,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>52</v>
@@ -4702,7 +4698,7 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -4716,7 +4712,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4742,10 +4738,10 @@
         <v>129</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4796,7 +4792,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -4828,7 +4824,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4851,13 +4847,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4908,7 +4904,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -4940,7 +4936,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4963,17 +4959,17 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5022,7 +5018,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5040,7 +5036,7 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
